--- a/loy/offer.xlsx
+++ b/loy/offer.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
-    <t xml:space="preserve">Telstra Call Guardian 301 </t>
+    <t xml:space="preserve">Apple EarPods with Lightning Connector </t>
   </si>
   <si>
     <t>Inventory ID</t>
@@ -50,7 +50,7 @@
     <t>Pay</t>
   </si>
   <si>
-    <t xml:space="preserve"> 100110308</t>
+    <t xml:space="preserve"> 100111132</t>
   </si>
   <si>
     <t>Persistant</t>
@@ -62,10 +62,10 @@
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">Telstra Call Guardian 301 Additional Handset </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100110252</t>
+    <t xml:space="preserve">Tello Drone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100110635</t>
   </si>
 </sst>
 </file>
@@ -443,10 +443,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -508,12 +508,14 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2"/>
+      <c r="D2">
+        <v>40</v>
+      </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>25000</v>
+        <v>10500</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -527,9 +529,11 @@
       <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L2"/>
+      <c r="L2">
+        <v>40</v>
+      </c>
       <c r="M2">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -542,12 +546,14 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3"/>
+      <c r="D3">
+        <v>40</v>
+      </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -561,12 +567,14 @@
       <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3"/>
+      <c r="L3">
+        <v>40</v>
+      </c>
       <c r="M3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -576,12 +584,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4"/>
+      <c r="D4">
+        <v>40</v>
+      </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -595,99 +605,73 @@
       <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L4"/>
+      <c r="L4">
+        <v>40</v>
+      </c>
       <c r="M4">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>17500</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>15000</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6"/>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>56000</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>12500</v>
-      </c>
-      <c r="G7">
-        <v>37</v>
-      </c>
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
@@ -697,9 +681,11 @@
       <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L7"/>
+      <c r="L7">
+        <v>170</v>
+      </c>
       <c r="M7">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -707,20 +693,22 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8"/>
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>170</v>
+      </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G8">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>13</v>
@@ -731,30 +719,34 @@
       <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L8"/>
+      <c r="L8">
+        <v>170</v>
+      </c>
       <c r="M8">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9"/>
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>170</v>
+      </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9">
-        <v>7500</v>
+        <v>45000</v>
       </c>
       <c r="G9">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>13</v>
@@ -765,30 +757,34 @@
       <c r="J9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L9"/>
+      <c r="L9">
+        <v>170</v>
+      </c>
       <c r="M9">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10"/>
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>170</v>
+      </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="G10">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>13</v>
@@ -799,50 +795,90 @@
       <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L10"/>
+      <c r="L10">
+        <v>170</v>
+      </c>
       <c r="M10">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>35000</v>
+      </c>
+      <c r="G11">
+        <v>63</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>170</v>
+      </c>
+      <c r="M11">
+        <v>30000</v>
+      </c>
+      <c r="N11">
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>10</v>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>170</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>30000</v>
+      </c>
+      <c r="G12">
+        <v>78</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>170</v>
+      </c>
+      <c r="M12">
+        <v>25000</v>
+      </c>
+      <c r="N12">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -852,15 +888,17 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13"/>
+      <c r="D13">
+        <v>170</v>
+      </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>13</v>
@@ -871,12 +909,14 @@
       <c r="J13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L13"/>
+      <c r="L13">
+        <v>170</v>
+      </c>
       <c r="M13">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -886,15 +926,17 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14"/>
+      <c r="D14">
+        <v>170</v>
+      </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>13</v>
@@ -905,12 +947,14 @@
       <c r="J14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L14"/>
+      <c r="L14">
+        <v>170</v>
+      </c>
       <c r="M14">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -920,31 +964,111 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15"/>
+      <c r="D15">
+        <v>170</v>
+      </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15">
+        <v>15000</v>
+      </c>
+      <c r="G15">
+        <v>123</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>170</v>
+      </c>
+      <c r="M15">
+        <v>10000</v>
+      </c>
+      <c r="N15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>10000</v>
+      </c>
+      <c r="G16">
+        <v>138</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>170</v>
+      </c>
+      <c r="M16">
         <v>5000</v>
       </c>
-      <c r="G15">
-        <v>15</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15"/>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
+      <c r="N16">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>5000</v>
+      </c>
+      <c r="G17">
+        <v>153</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>170</v>
+      </c>
+      <c r="M17">
+        <v>2500</v>
+      </c>
+      <c r="N17">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
